--- a/Assignment1/G9_Acceptance.Ass2_withfix.xlsx
+++ b/Assignment1/G9_Acceptance.Ass2_withfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bar katz\Desktop\שיטות\פרויקט\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB252FB-41DE-4C49-9F43-DC344B907188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1DEA23-72A5-4BDA-9519-C1656A6650C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="129">
   <si>
     <t>קבוצה 9</t>
   </si>
@@ -407,6 +407,78 @@
   </si>
   <si>
     <t>The identification process can be done by order number</t>
+  </si>
+  <si>
+    <t>1. The traveler is trying enter the park.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The currentDate == orderDate &amp; currentTime == OrderTime
+1.1 get success message
+1.2 The traveler can enters the park  
+</t>
+  </si>
+  <si>
+    <t>The Traveler must have an active order</t>
+  </si>
+  <si>
+    <t>The date  and time is correct</t>
+  </si>
+  <si>
+    <t>checkCorrectOrderByDateAndTime</t>
+  </si>
+  <si>
+    <t>checkOrderByWrongDateAndCorrectTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The currentDate != orderDate &amp; currentTime == OrderTime
+1.1 get fail message
+1.2 The traveler can't enters the park  
+</t>
+  </si>
+  <si>
+    <t>The Traveler must have an  active order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date is wrong </t>
+  </si>
+  <si>
+    <t>checkOrderByCorrectDateAndWrongTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The currentDate == orderDate &amp; currentTime != OrderTime &amp;&amp; currentTime&lt;= OrdetTime + 2 hours &amp;&amp; CheckVisitorsCapacityNotFull 
+1.1 get success message
+1.2 The traveler can enters the park  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The currentDate == orderDate &amp; currentTime != OrderTime &amp;&amp; currentTime &gt; OrdetTime + 2 hours 
+1.1 get fail message
+1.2 The traveler can't enters the park  
+</t>
+  </si>
+  <si>
+    <t>checkOrderByCorrectDateAndPeriodTime</t>
+  </si>
+  <si>
+    <t>checkWrongOrderByDateAndTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within the time allowed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the forbidden period of time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Traveler must have an  active order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The currentDate != orderDate &amp; currentTime != OrderTime   
+1.1 get fail message
+1.2 The traveler can't enters the park  
+</t>
+  </si>
+  <si>
+    <t>The date  and time is wrong</t>
   </si>
 </sst>
 </file>
@@ -479,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -592,12 +664,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,6 +707,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,31 +746,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,6 +757,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -958,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:N13"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -969,151 +1067,152 @@
     <col min="10" max="10" width="28.734375" customWidth="1"/>
     <col min="11" max="11" width="22.1015625" customWidth="1"/>
     <col min="12" max="12" width="37.26171875" customWidth="1"/>
-    <col min="14" max="14" width="11.5234375" customWidth="1"/>
+    <col min="13" max="13" width="8.83984375" customWidth="1"/>
+    <col min="14" max="14" width="26.05078125" customWidth="1"/>
     <col min="15" max="15" width="11.26171875" customWidth="1"/>
-    <col min="16" max="16" width="14.734375" customWidth="1"/>
+    <col min="16" max="16" width="21.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="10:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="12"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="10:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="21"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="10:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9">
         <v>203374855</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="10:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9">
         <v>204632988</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="14"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="10:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9">
         <v>321241192</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="10:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9">
         <v>315818567</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="14"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="10:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9">
         <v>316237577</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="14"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="10:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9">
         <v>203118666</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14" t="s">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="14"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="11" spans="10:17" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19" t="s">
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="10:17" x14ac:dyDescent="0.55000000000000004">
       <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="14" t="s">
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="14"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="10:17" x14ac:dyDescent="0.55000000000000004">
       <c r="J13" s="8">
@@ -1125,10 +1224,10 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="14"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="10:17" x14ac:dyDescent="0.55000000000000004">
       <c r="J14" s="8">
@@ -1140,83 +1239,83 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="10:17" x14ac:dyDescent="0.55000000000000004">
       <c r="J15" s="8">
         <v>3</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="14" t="s">
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="10:17" x14ac:dyDescent="0.55000000000000004">
       <c r="J16" s="8">
         <v>4</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="14" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="14"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.55000000000000004">
       <c r="J17" s="8">
         <v>5</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="14" t="s">
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="14"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.55000000000000004">
       <c r="J18" s="8">
         <v>6</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="14" t="s">
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="14"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="7:16" x14ac:dyDescent="0.55000000000000004">
       <c r="J19" s="8">
         <v>7</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="14" t="s">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="14"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="22" spans="7:16" x14ac:dyDescent="0.55000000000000004">
       <c r="G22" s="6" t="s">
@@ -1225,22 +1324,22 @@
       <c r="H22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="20"/>
+      <c r="K22" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="10" t="s">
+      <c r="L22" s="22"/>
+      <c r="M22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="10" t="s">
+      <c r="N22" s="20"/>
+      <c r="O22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="P22" s="11"/>
+      <c r="P22" s="20"/>
     </row>
     <row r="23" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G23" s="7">
@@ -1249,22 +1348,22 @@
       <c r="H23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9" t="s">
+      <c r="L23" s="18"/>
+      <c r="M23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9" t="s">
+      <c r="N23" s="18"/>
+      <c r="O23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="9"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G24" s="7">
@@ -1273,22 +1372,22 @@
       <c r="H24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9" t="s">
+      <c r="L24" s="18"/>
+      <c r="M24" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9" t="s">
+      <c r="N24" s="18"/>
+      <c r="O24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="P24" s="9"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G25" s="7">
@@ -1297,22 +1396,22 @@
       <c r="H25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9" t="s">
+      <c r="J25" s="18"/>
+      <c r="K25" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9" t="s">
+      <c r="L25" s="18"/>
+      <c r="M25" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9" t="s">
+      <c r="N25" s="18"/>
+      <c r="O25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="9"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G26" s="7">
@@ -1321,22 +1420,22 @@
       <c r="H26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9" t="s">
+      <c r="J26" s="18"/>
+      <c r="K26" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9" t="s">
+      <c r="L26" s="18"/>
+      <c r="M26" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9" t="s">
+      <c r="N26" s="18"/>
+      <c r="O26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P26" s="9"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G27" s="7">
@@ -1345,22 +1444,22 @@
       <c r="H27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9" t="s">
+      <c r="L27" s="18"/>
+      <c r="M27" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9" t="s">
+      <c r="N27" s="18"/>
+      <c r="O27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="P27" s="9"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G28" s="7">
@@ -1369,22 +1468,22 @@
       <c r="H28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9" t="s">
+      <c r="J28" s="18"/>
+      <c r="K28" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9" t="s">
+      <c r="L28" s="18"/>
+      <c r="M28" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9" t="s">
+      <c r="N28" s="18"/>
+      <c r="O28" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="P28" s="9"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G29" s="7">
@@ -1393,22 +1492,22 @@
       <c r="H29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9" t="s">
+      <c r="J29" s="18"/>
+      <c r="K29" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9" t="s">
+      <c r="L29" s="18"/>
+      <c r="M29" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9" t="s">
+      <c r="N29" s="18"/>
+      <c r="O29" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="P29" s="9"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G30" s="7">
@@ -1417,22 +1516,22 @@
       <c r="H30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9" t="s">
+      <c r="J30" s="18"/>
+      <c r="K30" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9" t="s">
+      <c r="L30" s="18"/>
+      <c r="M30" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9" t="s">
+      <c r="N30" s="18"/>
+      <c r="O30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="P30" s="9"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="31" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G31" s="7">
@@ -1441,22 +1540,22 @@
       <c r="H31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9" t="s">
+      <c r="J31" s="18"/>
+      <c r="K31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9" t="s">
+      <c r="L31" s="18"/>
+      <c r="M31" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9" t="s">
+      <c r="N31" s="18"/>
+      <c r="O31" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="P31" s="9"/>
+      <c r="P31" s="18"/>
     </row>
     <row r="32" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G32" s="7">
@@ -1465,22 +1564,22 @@
       <c r="H32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9" t="s">
+      <c r="J32" s="18"/>
+      <c r="K32" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9" t="s">
+      <c r="L32" s="18"/>
+      <c r="M32" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9" t="s">
+      <c r="N32" s="18"/>
+      <c r="O32" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="P32" s="9"/>
+      <c r="P32" s="18"/>
     </row>
     <row r="33" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G33" s="7">
@@ -1489,42 +1588,232 @@
       <c r="H33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9" t="s">
+      <c r="J33" s="18"/>
+      <c r="K33" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9" t="s">
+      <c r="L33" s="18"/>
+      <c r="M33" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9" t="s">
+      <c r="N33" s="18"/>
+      <c r="O33" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="37" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="38" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="P33" s="18"/>
+    </row>
+    <row r="34" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G34" s="27">
+        <v>12</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J34" s="29"/>
+      <c r="K34" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34" s="29"/>
+      <c r="M34" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" s="30"/>
+    </row>
+    <row r="35" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G35" s="27">
+        <v>13</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" s="29"/>
+      <c r="K35" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L35" s="29"/>
+      <c r="M35" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P35" s="30"/>
+    </row>
+    <row r="36" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G36" s="27">
+        <v>14</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" s="29"/>
+      <c r="K36" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="P36" s="30"/>
+    </row>
+    <row r="37" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G37" s="27">
+        <v>15</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J37" s="29"/>
+      <c r="K37" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37" s="29"/>
+      <c r="M37" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="P37" s="30"/>
+    </row>
+    <row r="38" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38" s="27">
+        <v>16</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" s="29"/>
+      <c r="K38" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="P38" s="30"/>
+    </row>
     <row r="39" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="41" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
+  <mergeCells count="109">
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O3:P3"/>
@@ -1541,70 +1830,15 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{FE498D62-483F-4ACA-AAB0-37DA5A962A8B}"/>
@@ -1670,10 +1904,10 @@
         <v>62</v>
       </c>
       <c r="G2" s="26"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
@@ -1693,10 +1927,10 @@
         <v>63</v>
       </c>
       <c r="G3" s="26"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -1716,10 +1950,10 @@
         <v>63</v>
       </c>
       <c r="G4" s="26"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
@@ -1739,10 +1973,10 @@
         <v>53</v>
       </c>
       <c r="G5" s="26"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
@@ -1762,10 +1996,10 @@
         <v>39</v>
       </c>
       <c r="G6" s="26"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
@@ -1785,10 +2019,10 @@
         <v>53</v>
       </c>
       <c r="G7" s="26"/>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
@@ -1808,10 +2042,10 @@
         <v>44</v>
       </c>
       <c r="G8" s="26"/>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
@@ -1831,10 +2065,10 @@
         <v>47</v>
       </c>
       <c r="G9" s="26"/>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
@@ -1854,10 +2088,10 @@
         <v>56</v>
       </c>
       <c r="G10" s="26"/>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
@@ -1877,10 +2111,10 @@
         <v>58</v>
       </c>
       <c r="G11" s="26"/>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
@@ -1900,13 +2134,36 @@
         <v>60</v>
       </c>
       <c r="G12" s="26"/>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F9:G9"/>
@@ -1920,29 +2177,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
